--- a/results/mp/deberta/corona/confidence/126/stop-words-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-0.35/avg_0.003_scores.xlsx
@@ -100,12 +100,12 @@
     <t>positive</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
@@ -124,13 +124,13 @@
     <t>safety</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>join</t>
   </si>
   <si>
     <t>share</t>
@@ -1204,25 +1204,25 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6753246753246753</v>
+        <v>0.6633663366336634</v>
       </c>
       <c r="L19">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="M19">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c r="N19">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O19">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1230,25 +1230,25 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.6633663366336634</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L20">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="M20">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="N20">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>34</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1412,25 +1412,25 @@
         <v>36</v>
       </c>
       <c r="K27">
-        <v>0.5258358662613982</v>
+        <v>0.52</v>
       </c>
       <c r="L27">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="N27">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>156</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1438,25 +1438,25 @@
         <v>37</v>
       </c>
       <c r="K28">
-        <v>0.52</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="L28">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1464,25 +1464,25 @@
         <v>38</v>
       </c>
       <c r="K29">
-        <v>0.5121951219512195</v>
+        <v>0.5088235294117647</v>
       </c>
       <c r="L29">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="M29">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="N29">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>20</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="10:17">
